--- a/Atm.xlsx
+++ b/Atm.xlsx
@@ -5370,7 +5370,7 @@
     <t>logo</t>
   </si>
   <si>
-    <t>รออัพเดทจากธนาคาร</t>
+    <t>เปิดทำการปกติ</t>
   </si>
 </sst>
 </file>
@@ -5746,7 +5746,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q423"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A386" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
       <selection activeCell="Q2" sqref="Q2:Q423"/>
     </sheetView>
   </sheetViews>
